--- a/data/trans_dic/POLIPATOLOGIA_2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_2-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.2485554485504287</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.3972713281551203</v>
+        <v>0.3972713281551202</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.1816178520580965</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1230419696980645</v>
+        <v>0.1246170632443069</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1599216607455462</v>
+        <v>0.1579681637112829</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1879881802774772</v>
+        <v>0.1890622790533341</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2670268071905008</v>
+        <v>0.268546919252998</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1778270984783236</v>
+        <v>0.1787521286356978</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1709245499163497</v>
+        <v>0.1729014873748237</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2035806266311526</v>
+        <v>0.2062812665434757</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3591363478973998</v>
+        <v>0.3586432397256719</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1554987376332551</v>
+        <v>0.1562617243735245</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.176350678599398</v>
+        <v>0.1736807995775785</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.203861500028859</v>
+        <v>0.2068373676573119</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3228345512213563</v>
+        <v>0.3217860347148322</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1941075864391105</v>
+        <v>0.1940910935203461</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2395579521051886</v>
+        <v>0.2398925305724531</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2743404485259164</v>
+        <v>0.2749325715503734</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3422858981215486</v>
+        <v>0.3471588475097133</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2723414892923944</v>
+        <v>0.2736604678607553</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2651865705582517</v>
+        <v>0.2658427270212038</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3034994663386183</v>
+        <v>0.305244144090224</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4367994686505458</v>
+        <v>0.4358615950695598</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2119720085162954</v>
+        <v>0.2110084286080446</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2369527129507507</v>
+        <v>0.2341898271882383</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2706531836354728</v>
+        <v>0.2711886253446297</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3779643504438046</v>
+        <v>0.375500464106924</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.2221951678279839</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.4084386507659747</v>
+        <v>0.4084386507659746</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.198311804927231</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1156034048609173</v>
+        <v>0.1153902396695936</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1629861924687436</v>
+        <v>0.1651248022401271</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1683709748858855</v>
+        <v>0.1708345117710486</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2860058930111851</v>
+        <v>0.2862226455023351</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2030916904411161</v>
+        <v>0.2055105676831738</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2283792827665234</v>
+        <v>0.228140593810829</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1776777055001729</v>
+        <v>0.1825592735580392</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.370615599554535</v>
+        <v>0.3666915899400709</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.169625293983796</v>
+        <v>0.1699542834461483</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2047169007739066</v>
+        <v>0.2032828962436702</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1887184356961358</v>
+        <v>0.1850332998237354</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3349630128690684</v>
+        <v>0.3386271294103372</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.188970988115145</v>
+        <v>0.1888782694558211</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2472090386410866</v>
+        <v>0.2501877752338144</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.259792115277827</v>
+        <v>0.2586840298167782</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3705236662899909</v>
+        <v>0.3755022902545915</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2929828121840237</v>
+        <v>0.2991349393300661</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3274007424101846</v>
+        <v>0.3261411037590243</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2693678220518236</v>
+        <v>0.2707776906891514</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4544059991214212</v>
+        <v>0.4535138773625699</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2287607395678684</v>
+        <v>0.2284714578858201</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2682540403014584</v>
+        <v>0.2701468443005434</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2528590676016045</v>
+        <v>0.2519313116318016</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3934685459823716</v>
+        <v>0.3958150400388313</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.2731110449690752</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.3548345623285972</v>
+        <v>0.3548345623285971</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.3332288577929595</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.192785582652164</v>
+        <v>0.1914019144285518</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2671217382945132</v>
+        <v>0.2669105375712177</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2343762557030683</v>
+        <v>0.2326568360856098</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3138648547239047</v>
+        <v>0.3145956175878219</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2604518295324275</v>
+        <v>0.2556815675948375</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3199530591307801</v>
+        <v>0.312540247189836</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2772335746427281</v>
+        <v>0.2871985714053179</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4897909586132093</v>
+        <v>0.4937657406377718</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2200149775710045</v>
+        <v>0.2197992868899133</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2925167735234147</v>
+        <v>0.2942994892834049</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2607364063882008</v>
+        <v>0.2614764392842081</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3745020655409071</v>
+        <v>0.3760422720227424</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2646136394718363</v>
+        <v>0.2682326748378593</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3440521330408471</v>
+        <v>0.3427569978639909</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.311385342971316</v>
+        <v>0.3125342642787612</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4006564488084371</v>
+        <v>0.4011822986958075</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4107340886091053</v>
+        <v>0.4033636475576644</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4418543346027136</v>
+        <v>0.4364157974794421</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.437494163019937</v>
+        <v>0.4401265435817521</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6121113172875562</v>
+        <v>0.6109780335270134</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2833801491866375</v>
+        <v>0.2858570887680315</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.357136030634823</v>
+        <v>0.3580934991849952</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3300086397626803</v>
+        <v>0.3289462369690583</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4477523770499915</v>
+        <v>0.4485698929165716</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2271697263514981</v>
+        <v>0.2295930864286569</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2560354616242989</v>
+        <v>0.2589354513482867</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2302574621542165</v>
+        <v>0.2305158324787934</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3163453626835537</v>
+        <v>0.320279717988853</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2560532010969789</v>
+        <v>0.2559485626360678</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2586460812061596</v>
+        <v>0.2625870384090364</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2550064836127909</v>
+        <v>0.2528786513021525</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3952514879521487</v>
+        <v>0.3965279436392035</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2447611654778456</v>
+        <v>0.2474124132594625</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2657952468814067</v>
+        <v>0.2658196491714653</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2484713427803068</v>
+        <v>0.2489487378502146</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3602924526361982</v>
+        <v>0.3589617794968187</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2763367395754143</v>
+        <v>0.2770673022804868</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3096251596055757</v>
+        <v>0.3138926888911027</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2813298581524303</v>
+        <v>0.2813848903291187</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3746388309665214</v>
+        <v>0.3771789206214383</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3246206934246372</v>
+        <v>0.3204629983164697</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3264942689617478</v>
+        <v>0.3315843109053656</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3212779421376711</v>
+        <v>0.3160815980485685</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4542046124396772</v>
+        <v>0.4554448289656608</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.284922870612608</v>
+        <v>0.2860984590243743</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3087165697903684</v>
+        <v>0.3090587716830114</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2887584333665227</v>
+        <v>0.2875564170773504</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4011693921266551</v>
+        <v>0.4017387756289325</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.2897467480322351</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.3353830989487211</v>
+        <v>0.335383098948721</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.3431502917748323</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1729054862417566</v>
+        <v>0.1711265732717764</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2058056950686387</v>
+        <v>0.199531323563674</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.25473471971112</v>
+        <v>0.2537585026057486</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2974545156863485</v>
+        <v>0.2960447609911841</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3030140437774245</v>
+        <v>0.3038234614942955</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.4291625038761073</v>
+        <v>0.4301993145925316</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.4251218249974015</v>
+        <v>0.4220406080672307</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.5130502175935574</v>
+        <v>0.5115017026962079</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.263222592538198</v>
+        <v>0.2620677243693114</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3475609496758196</v>
+        <v>0.3483027105588594</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3553819140105873</v>
+        <v>0.3540762674442133</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.4327348033332061</v>
+        <v>0.4339294638913544</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2572571940144192</v>
+        <v>0.2583821950557019</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2817955891982323</v>
+        <v>0.2819601120254617</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3270096357307258</v>
+        <v>0.3287068759430803</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3793773479014245</v>
+        <v>0.3767023492225459</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3824181764794973</v>
+        <v>0.3876268652344151</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.5039896358376827</v>
+        <v>0.5037688106579684</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4964553236709693</v>
+        <v>0.4970904052955318</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5717081389303743</v>
+        <v>0.5704397131826542</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3250813442713318</v>
+        <v>0.3250333535991273</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.4024713430529482</v>
+        <v>0.4031725135148573</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.4072047094555966</v>
+        <v>0.4078396781318434</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.482763203673208</v>
+        <v>0.484548021569607</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.4336564186782138</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.4649244794884972</v>
+        <v>0.4649244794884971</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.3396240427653221</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01525293972307023</v>
+        <v>0.01529366628687552</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.0360456409359047</v>
+        <v>0.03642869505628005</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.03157767288368426</v>
+        <v>0.03103754330175047</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1002157016575751</v>
+        <v>0.09557642268201903</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.3864011517267349</v>
+        <v>0.38452803518652</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.455768194560752</v>
+        <v>0.453744686366143</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.4020799805009219</v>
+        <v>0.4016594887931147</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.429790344326817</v>
+        <v>0.4325755641252623</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.3149544294604243</v>
+        <v>0.3167610691632617</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.3745923780543422</v>
+        <v>0.3763667365704645</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.3271470652588847</v>
+        <v>0.3265020832703281</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.3669167680922188</v>
+        <v>0.3664289308649469</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.05462200832240478</v>
+        <v>0.05424238342728505</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.103618482161772</v>
+        <v>0.1012325805211272</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.08440664998476637</v>
+        <v>0.08261508566777485</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2481320103422739</v>
+        <v>0.2434277144750782</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.4442815895427752</v>
+        <v>0.4395701772996848</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.5144426619677146</v>
+        <v>0.5110051795773664</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.4659628970520178</v>
+        <v>0.46764981038603</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.49617930903743</v>
+        <v>0.496891271073434</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3629136975027337</v>
+        <v>0.365345571564432</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.4280322566015686</v>
+        <v>0.4291888113179844</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3800045028101861</v>
+        <v>0.3836159023697297</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.4303468241716387</v>
+        <v>0.4305944517717349</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.2391242721364773</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3239333053714462</v>
+        <v>0.3239333053714463</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.3352040893241786</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1846094324200786</v>
+        <v>0.1847314081843768</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2278445171316401</v>
+        <v>0.2289380517066608</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2244654793121788</v>
+        <v>0.2259666786577149</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3066507251543283</v>
+        <v>0.3071104563489237</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3197153318813671</v>
+        <v>0.3205068450340632</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3695145888072531</v>
+        <v>0.369949734991606</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.345601111074722</v>
+        <v>0.3446083997596418</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.4477833333053775</v>
+        <v>0.4474607149803623</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2573708795997825</v>
+        <v>0.2572681383461402</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.3053518526456579</v>
+        <v>0.3043904155269517</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2894708811727061</v>
+        <v>0.2886286102928252</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.3833333657935712</v>
+        <v>0.384857312834263</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2115048441559657</v>
+        <v>0.2114655144025818</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2582876856690428</v>
+        <v>0.2594901944975202</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2539323699508053</v>
+        <v>0.2549131750886579</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.341725941025389</v>
+        <v>0.340802976323669</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3509594975053322</v>
+        <v>0.3515065987956345</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4044060926982056</v>
+        <v>0.403679015662997</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3776848886882254</v>
+        <v>0.3758081365115677</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.4750950547182726</v>
+        <v>0.4774547738826022</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.278252387168195</v>
+        <v>0.2778779440827241</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3282007577563168</v>
+        <v>0.3270771766378337</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3126231698932173</v>
+        <v>0.3115899786425346</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.4061174802245037</v>
+        <v>0.4068753779774046</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>58294</v>
+        <v>59041</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>69920</v>
+        <v>69065</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>80664</v>
+        <v>81125</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>147030</v>
+        <v>147867</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>54536</v>
+        <v>54820</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>53748</v>
+        <v>54370</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>70654</v>
+        <v>71591</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>175406</v>
+        <v>175165</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>121360</v>
+        <v>121956</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>132557</v>
+        <v>130550</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>158226</v>
+        <v>160536</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>335434</v>
+        <v>334345</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>91964</v>
+        <v>91956</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>104737</v>
+        <v>104884</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>117717</v>
+        <v>117971</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>188469</v>
+        <v>191152</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>83522</v>
+        <v>83926</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>83389</v>
+        <v>83595</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>105331</v>
+        <v>105937</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>213338</v>
+        <v>212880</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>165435</v>
+        <v>164683</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>178109</v>
+        <v>176032</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>210067</v>
+        <v>210482</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>392716</v>
+        <v>390156</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>42419</v>
+        <v>42341</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>68258</v>
+        <v>69154</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>63514</v>
+        <v>64443</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>138201</v>
+        <v>138306</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>75523</v>
+        <v>76422</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>77195</v>
+        <v>77114</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>66145</v>
+        <v>67962</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>156823</v>
+        <v>155163</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>125319</v>
+        <v>125562</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>154931</v>
+        <v>153846</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>141444</v>
+        <v>138682</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>303595</v>
+        <v>306916</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>69340</v>
+        <v>69306</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>103530</v>
+        <v>104778</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>98001</v>
+        <v>97583</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>179041</v>
+        <v>181447</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>108950</v>
+        <v>111238</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>110665</v>
+        <v>110239</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>100278</v>
+        <v>100803</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>192279</v>
+        <v>191901</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>169008</v>
+        <v>168794</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>203017</v>
+        <v>204449</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>189518</v>
+        <v>188823</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>356622</v>
+        <v>358749</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>104565</v>
+        <v>103814</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>168130</v>
+        <v>167997</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>122324</v>
+        <v>121427</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>148022</v>
+        <v>148367</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>43699</v>
+        <v>42899</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>83229</v>
+        <v>81301</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>46055</v>
+        <v>47710</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>91834</v>
+        <v>92580</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>156248</v>
+        <v>156095</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>260207</v>
+        <v>261792</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>179396</v>
+        <v>179905</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>246838</v>
+        <v>247853</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>143524</v>
+        <v>145486</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>216552</v>
+        <v>215736</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>162516</v>
+        <v>163116</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>188954</v>
+        <v>189202</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>68914</v>
+        <v>67677</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>114939</v>
+        <v>113524</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>72678</v>
+        <v>73115</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>114769</v>
+        <v>114557</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>201248</v>
+        <v>203007</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>317688</v>
+        <v>318540</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>227058</v>
+        <v>226327</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>295118</v>
+        <v>295656</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>281312</v>
+        <v>284313</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>296747</v>
+        <v>300109</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>264713</v>
+        <v>265010</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>358053</v>
+        <v>362506</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>182895</v>
+        <v>182820</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>198293</v>
+        <v>201314</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>210604</v>
+        <v>208846</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>340395</v>
+        <v>341494</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>477926</v>
+        <v>483102</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>511833</v>
+        <v>511880</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>490859</v>
+        <v>491802</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>718082</v>
+        <v>715430</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>342197</v>
+        <v>343102</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>358858</v>
+        <v>363804</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>323427</v>
+        <v>323491</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>424032</v>
+        <v>426907</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>231872</v>
+        <v>228902</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>250309</v>
+        <v>254211</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>265336</v>
+        <v>261044</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>391166</v>
+        <v>392234</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>556346</v>
+        <v>558642</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>594485</v>
+        <v>595144</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>570446</v>
+        <v>568072</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>799552</v>
+        <v>800687</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>60613</v>
+        <v>59989</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>105084</v>
+        <v>101880</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>158115</v>
+        <v>157509</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>168943</v>
+        <v>168143</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>172340</v>
+        <v>172800</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>326817</v>
+        <v>327606</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>313844</v>
+        <v>311569</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>426268</v>
+        <v>424981</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>241982</v>
+        <v>240921</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>442139</v>
+        <v>443082</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>482946</v>
+        <v>481172</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>605316</v>
+        <v>606987</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>90183</v>
+        <v>90577</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>143884</v>
+        <v>143968</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>202977</v>
+        <v>204030</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>215473</v>
+        <v>213953</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>217501</v>
+        <v>220464</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>383799</v>
+        <v>383631</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>366505</v>
+        <v>366974</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>475004</v>
+        <v>473950</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>298850</v>
+        <v>298805</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>511991</v>
+        <v>512883</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>553371</v>
+        <v>554234</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>675296</v>
+        <v>677793</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>4548</v>
+        <v>4561</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>9620</v>
+        <v>9722</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>9067</v>
+        <v>8912</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>23774</v>
+        <v>22673</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>482522</v>
+        <v>480183</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>505607</v>
+        <v>503362</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>435061</v>
+        <v>434606</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>362864</v>
+        <v>365215</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>487222</v>
+        <v>490017</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>515526</v>
+        <v>517968</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>447920</v>
+        <v>447037</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>396824</v>
+        <v>396296</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>16288</v>
+        <v>16175</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>27654</v>
+        <v>27017</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>24237</v>
+        <v>23723</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>58864</v>
+        <v>57748</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>554801</v>
+        <v>548918</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>570697</v>
+        <v>566884</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>504184</v>
+        <v>506009</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>418915</v>
+        <v>419516</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>561413</v>
+        <v>565175</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>589072</v>
+        <v>590664</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>520291</v>
+        <v>525235</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>465424</v>
+        <v>465692</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>603708</v>
+        <v>604107</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>779663</v>
+        <v>783405</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>759978</v>
+        <v>765060</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>1055638</v>
+        <v>1057220</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1080038</v>
+        <v>1082712</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1311823</v>
+        <v>1313368</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1220524</v>
+        <v>1217018</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>1627868</v>
+        <v>1626696</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1711082</v>
+        <v>1710399</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>2128924</v>
+        <v>2122221</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>2002362</v>
+        <v>1996536</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>2713183</v>
+        <v>2723970</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>691661</v>
+        <v>691532</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>883837</v>
+        <v>887952</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>859744</v>
+        <v>863065</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>1176383</v>
+        <v>1173206</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>1185585</v>
+        <v>1187433</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1435692</v>
+        <v>1433111</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>1333830</v>
+        <v>1327203</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>1727157</v>
+        <v>1735736</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1849909</v>
+        <v>1847420</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>2288227</v>
+        <v>2280394</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>2162514</v>
+        <v>2155367</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>2874446</v>
+        <v>2879811</v>
       </c>
     </row>
     <row r="32">
